--- a/data/factor_data/regression_stats/stats_CCOEY.xlsx
+++ b/data/factor_data/regression_stats/stats_CCOEY.xlsx
@@ -438,22 +438,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.003875749463537477</v>
+        <v>-0.003751728106939132</v>
       </c>
       <c r="C2">
-        <v>-3.520129010811035</v>
+        <v>-3.46135675307129</v>
       </c>
       <c r="D2">
-        <v>-0.004038450623513153</v>
+        <v>-0.003886266823579343</v>
       </c>
       <c r="E2">
-        <v>-3.735923215399782</v>
+        <v>-3.646247113365237</v>
       </c>
       <c r="F2">
-        <v>-0.003962705856557652</v>
+        <v>-0.003868164017110502</v>
       </c>
       <c r="G2">
-        <v>-3.687857427363286</v>
+        <v>-3.670354452897395</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,22 +461,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5289494803644214</v>
+        <v>0.5298590258117566</v>
       </c>
       <c r="C3">
-        <v>6.042968528647798</v>
+        <v>6.099816460633241</v>
       </c>
       <c r="D3">
-        <v>0.5647081354810237</v>
+        <v>0.5561600847260351</v>
       </c>
       <c r="E3">
-        <v>6.627988962793959</v>
+        <v>6.503268356378763</v>
       </c>
       <c r="F3">
-        <v>0.5569462250640991</v>
+        <v>0.5685155697720599</v>
       </c>
       <c r="G3">
-        <v>5.776778020199747</v>
+        <v>5.980087206379874</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,16 +484,16 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>-0.1041486165436854</v>
+        <v>-0.007986300525941903</v>
       </c>
       <c r="E4">
-        <v>-0.6117837913953189</v>
+        <v>-0.04751259766071975</v>
       </c>
       <c r="F4">
-        <v>-0.1918089834606696</v>
+        <v>-0.05323616558766943</v>
       </c>
       <c r="G4">
-        <v>-1.047976764185158</v>
+        <v>-0.2998258343500442</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,16 +501,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>-0.1948241937818377</v>
+        <v>-0.2067871005178024</v>
       </c>
       <c r="E5">
-        <v>-1.749012265996029</v>
+        <v>-1.885260247285339</v>
       </c>
       <c r="F5">
-        <v>-0.05776882248259515</v>
+        <v>-0.1535679698614571</v>
       </c>
       <c r="G5">
-        <v>-0.3597827363872689</v>
+        <v>-1.009133234915367</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>-0.4075744700232939</v>
+        <v>-0.3680246596479285</v>
       </c>
       <c r="G6">
-        <v>-1.314384280414107</v>
+        <v>-1.218445590594482</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -529,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>-0.2364263741684513</v>
+        <v>0.07859112593548022</v>
       </c>
       <c r="G7">
-        <v>-0.5526524238970073</v>
+        <v>0.2012224638367587</v>
       </c>
     </row>
   </sheetData>
